--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H2">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I2">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J2">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.2873121431529</v>
+        <v>47.253984</v>
       </c>
       <c r="N2">
-        <v>46.2873121431529</v>
+        <v>141.761952</v>
       </c>
       <c r="O2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q2">
-        <v>781.0034482895829</v>
+        <v>841.5858944025599</v>
       </c>
       <c r="R2">
-        <v>781.0034482895829</v>
+        <v>7574.27304962304</v>
       </c>
       <c r="S2">
-        <v>0.6962760391069102</v>
+        <v>0.680274892249188</v>
       </c>
       <c r="T2">
-        <v>0.6962760391069102</v>
+        <v>0.680274892249188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H3">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I3">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J3">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.82043266310992</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N3">
-        <v>3.82043266310992</v>
+        <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q3">
-        <v>64.46196475222162</v>
+        <v>71.64039010389332</v>
       </c>
       <c r="R3">
-        <v>64.46196475222162</v>
+        <v>644.7635109350399</v>
       </c>
       <c r="S3">
-        <v>0.05746878786389704</v>
+        <v>0.0579087161307674</v>
       </c>
       <c r="T3">
-        <v>0.05746878786389704</v>
+        <v>0.0579087161307674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H4">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I4">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J4">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.729705316449215</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N4">
-        <v>0.729705316449215</v>
+        <v>2.367962</v>
       </c>
       <c r="O4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q4">
-        <v>12.312280449976</v>
+        <v>14.05767478202667</v>
       </c>
       <c r="R4">
-        <v>12.312280449976</v>
+        <v>126.51907303824</v>
       </c>
       <c r="S4">
-        <v>0.01097657876268954</v>
+        <v>0.01136316953649292</v>
       </c>
       <c r="T4">
-        <v>0.01097657876268954</v>
+        <v>0.01136316953649292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H5">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I5">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J5">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.311993888392052</v>
+        <v>0.803095</v>
       </c>
       <c r="N5">
-        <v>0.311993888392052</v>
+        <v>2.409285</v>
       </c>
       <c r="O5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q5">
-        <v>5.26425690750576</v>
+        <v>14.3029934548</v>
       </c>
       <c r="R5">
-        <v>5.26425690750576</v>
+        <v>128.7269410932</v>
       </c>
       <c r="S5">
-        <v>0.004693162311160811</v>
+        <v>0.01156146674512908</v>
       </c>
       <c r="T5">
-        <v>0.004693162311160811</v>
+        <v>0.01156146674512908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.685112640191931</v>
+        <v>17.80984</v>
       </c>
       <c r="H6">
-        <v>0.685112640191931</v>
+        <v>53.42952</v>
       </c>
       <c r="I6">
-        <v>0.03124146538271146</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J6">
-        <v>0.03124146538271146</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.2873121431529</v>
+        <v>0.320979</v>
       </c>
       <c r="N6">
-        <v>46.2873121431529</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q6">
-        <v>31.71202262978351</v>
+        <v>5.716584633359998</v>
       </c>
       <c r="R6">
-        <v>31.71202262978351</v>
+        <v>51.44926170023999</v>
       </c>
       <c r="S6">
-        <v>0.02827173369988419</v>
+        <v>0.00462085809821352</v>
       </c>
       <c r="T6">
-        <v>0.02827173369988419</v>
+        <v>0.00462085809821352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82043266310992</v>
+        <v>47.253984</v>
       </c>
       <c r="N7">
-        <v>3.82043266310992</v>
+        <v>141.761952</v>
       </c>
       <c r="O7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q7">
-        <v>2.617426708498727</v>
+        <v>34.955725129472</v>
       </c>
       <c r="R7">
-        <v>2.617426708498727</v>
+        <v>314.6015261652479</v>
       </c>
       <c r="S7">
-        <v>0.002333474333867981</v>
+        <v>0.02825558544184586</v>
       </c>
       <c r="T7">
-        <v>0.002333474333867981</v>
+        <v>0.02825558544184585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.729705316449215</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N8">
-        <v>0.729705316449215</v>
+        <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q8">
-        <v>0.4999303359146102</v>
+        <v>2.975622335516444</v>
       </c>
       <c r="R8">
-        <v>0.4999303359146102</v>
+        <v>26.78060101964799</v>
       </c>
       <c r="S8">
-        <v>0.0004456952333339073</v>
+        <v>0.002405269832979711</v>
       </c>
       <c r="T8">
-        <v>0.0004456952333339073</v>
+        <v>0.002405269832979711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.311993888392052</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N9">
-        <v>0.311993888392052</v>
+        <v>2.367962</v>
       </c>
       <c r="O9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q9">
-        <v>0.2137509566000254</v>
+        <v>0.5838931223875555</v>
       </c>
       <c r="R9">
-        <v>0.2137509566000254</v>
+        <v>5.255038101488</v>
       </c>
       <c r="S9">
-        <v>0.0001905621156253784</v>
+        <v>0.0004719753902234939</v>
       </c>
       <c r="T9">
-        <v>0.0001905621156253784</v>
+        <v>0.0004719753902234938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.00378355083643</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
-        <v>1.00378355083643</v>
+        <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J10">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>46.2873121431529</v>
+        <v>0.803095</v>
       </c>
       <c r="N10">
-        <v>46.2873121431529</v>
+        <v>2.409285</v>
       </c>
       <c r="O10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q10">
-        <v>46.46244254172822</v>
+        <v>0.5940825660933333</v>
       </c>
       <c r="R10">
-        <v>46.46244254172822</v>
+        <v>5.346743094839999</v>
       </c>
       <c r="S10">
-        <v>0.04142194958426334</v>
+        <v>0.000480211771994065</v>
       </c>
       <c r="T10">
-        <v>0.04142194958426334</v>
+        <v>0.0004802117719940649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.00378355083643</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
-        <v>1.00378355083643</v>
+        <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J11">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.82043266310992</v>
+        <v>0.320979</v>
       </c>
       <c r="N11">
-        <v>3.82043266310992</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q11">
-        <v>3.834887464307954</v>
+        <v>0.2374414334319999</v>
       </c>
       <c r="R11">
-        <v>3.834887464307954</v>
+        <v>2.136972900887999</v>
       </c>
       <c r="S11">
-        <v>0.00341885846972476</v>
+        <v>0.0001919298393874734</v>
       </c>
       <c r="T11">
-        <v>0.00341885846972476</v>
+        <v>0.0001919298393874734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H12">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.729705316449215</v>
+        <v>47.253984</v>
       </c>
       <c r="N12">
-        <v>0.729705316449215</v>
+        <v>141.761952</v>
       </c>
       <c r="O12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q12">
-        <v>0.7324661936096137</v>
+        <v>48.779878148672</v>
       </c>
       <c r="R12">
-        <v>0.7324661936096137</v>
+        <v>439.018903338048</v>
       </c>
       <c r="S12">
-        <v>0.0006530043640436248</v>
+        <v>0.039429993506573</v>
       </c>
       <c r="T12">
-        <v>0.0006530043640436248</v>
+        <v>0.039429993506573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H13">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.311993888392052</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N13">
-        <v>0.311993888392052</v>
+        <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.006099653562692117</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P13">
-        <v>0.006099653562692117</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q13">
-        <v>0.3131743331294388</v>
+        <v>4.152409781383111</v>
       </c>
       <c r="R13">
-        <v>0.3131743331294388</v>
+        <v>37.37168803244799</v>
       </c>
       <c r="S13">
-        <v>0.0002791995153143833</v>
+        <v>0.003356496509022618</v>
       </c>
       <c r="T13">
-        <v>0.0002791995153143833</v>
+        <v>0.003356496509022618</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.01807393907513</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H14">
-        <v>2.01807393907513</v>
+        <v>3.096874</v>
       </c>
       <c r="I14">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J14">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.2873121431529</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N14">
-        <v>46.2873121431529</v>
+        <v>2.367962</v>
       </c>
       <c r="O14">
-        <v>0.9049426252434795</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P14">
-        <v>0.9049426252434795</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q14">
-        <v>93.41121834593267</v>
+        <v>0.814808883420889</v>
       </c>
       <c r="R14">
-        <v>93.41121834593267</v>
+        <v>7.333279950788</v>
       </c>
       <c r="S14">
-        <v>0.08327747241128826</v>
+        <v>0.0006586303656697082</v>
       </c>
       <c r="T14">
-        <v>0.08327747241128826</v>
+        <v>0.0006586303656697081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.01807393907513</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H15">
-        <v>2.01807393907513</v>
+        <v>3.096874</v>
       </c>
       <c r="I15">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J15">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>3.82043266310992</v>
+        <v>0.803095</v>
       </c>
       <c r="N15">
-        <v>3.82043266310992</v>
+        <v>2.409285</v>
       </c>
       <c r="O15">
-        <v>0.07469157753270081</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P15">
-        <v>0.07469157753270081</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q15">
-        <v>7.709915593413525</v>
+        <v>0.8290280083433332</v>
       </c>
       <c r="R15">
-        <v>7.709915593413525</v>
+        <v>7.46125207509</v>
       </c>
       <c r="S15">
-        <v>0.00687350293137262</v>
+        <v>0.0006701240393859963</v>
       </c>
       <c r="T15">
-        <v>0.00687350293137262</v>
+        <v>0.0006701240393859962</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.01807393907513</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H16">
-        <v>2.01807393907513</v>
+        <v>3.096874</v>
       </c>
       <c r="I16">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J16">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.729705316449215</v>
+        <v>0.320979</v>
       </c>
       <c r="N16">
-        <v>0.729705316449215</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O16">
-        <v>0.01426614366112763</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P16">
-        <v>0.01426614366112763</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q16">
-        <v>1.472599282330731</v>
+        <v>0.3313438398819999</v>
       </c>
       <c r="R16">
-        <v>1.472599282330731</v>
+        <v>2.982094558937999</v>
       </c>
       <c r="S16">
-        <v>0.001312843877627469</v>
+        <v>0.0002678334991975765</v>
       </c>
       <c r="T16">
-        <v>0.001312843877627469</v>
+        <v>0.0002678334991975764</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H17">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I17">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J17">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.311993888392052</v>
+        <v>47.253984</v>
       </c>
       <c r="N17">
-        <v>0.311993888392052</v>
+        <v>141.761952</v>
       </c>
       <c r="O17">
-        <v>0.006099653562692117</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P17">
-        <v>0.006099653562692117</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q17">
-        <v>0.6296267353147148</v>
+        <v>102.277279033344</v>
       </c>
       <c r="R17">
-        <v>0.6296267353147148</v>
+        <v>920.4955113000959</v>
       </c>
       <c r="S17">
-        <v>0.0005613214773133696</v>
+        <v>0.08267327843385559</v>
       </c>
       <c r="T17">
-        <v>0.0005613214773133696</v>
+        <v>0.08267327843385559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H18">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I18">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J18">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.2873121431529</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N18">
-        <v>46.2873121431529</v>
+        <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.9049426252434795</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P18">
-        <v>0.9049426252434795</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q18">
-        <v>62.47281363335675</v>
+        <v>8.706400876543999</v>
       </c>
       <c r="R18">
-        <v>62.47281363335675</v>
+        <v>78.35760788889598</v>
       </c>
       <c r="S18">
-        <v>0.05569543044113343</v>
+        <v>0.007037601221172736</v>
       </c>
       <c r="T18">
-        <v>0.05569543044113343</v>
+        <v>0.007037601221172736</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H19">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I19">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J19">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.82043266310992</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N19">
-        <v>3.82043266310992</v>
+        <v>2.367962</v>
       </c>
       <c r="O19">
-        <v>0.07469157753270081</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P19">
-        <v>0.07469157753270081</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q19">
-        <v>5.156341267410595</v>
+        <v>1.708418280064</v>
       </c>
       <c r="R19">
-        <v>5.156341267410595</v>
+        <v>15.375764520576</v>
       </c>
       <c r="S19">
-        <v>0.004596953933838401</v>
+        <v>0.001380957153769931</v>
       </c>
       <c r="T19">
-        <v>0.004596953933838401</v>
+        <v>0.001380957153769931</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H20">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I20">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J20">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.729705316449215</v>
+        <v>0.803095</v>
       </c>
       <c r="N20">
-        <v>0.729705316449215</v>
+        <v>2.409285</v>
       </c>
       <c r="O20">
-        <v>0.01426614366112763</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P20">
-        <v>0.01426614366112763</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q20">
-        <v>0.9848647962278554</v>
+        <v>1.73823166752</v>
       </c>
       <c r="R20">
-        <v>0.9848647962278554</v>
+        <v>15.64408500768</v>
       </c>
       <c r="S20">
-        <v>0.0008780214234330824</v>
+        <v>0.00140505605926978</v>
       </c>
       <c r="T20">
-        <v>0.0008780214234330824</v>
+        <v>0.00140505605926978</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H21">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I21">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J21">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.311993888392052</v>
+        <v>0.320979</v>
       </c>
       <c r="N21">
-        <v>0.311993888392052</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O21">
-        <v>0.006099653562692117</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P21">
-        <v>0.006099653562692117</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q21">
-        <v>0.4210902543656603</v>
+        <v>0.6947320832639998</v>
       </c>
       <c r="R21">
-        <v>0.4210902543656603</v>
+        <v>6.252588749375999</v>
       </c>
       <c r="S21">
-        <v>0.0003754081432781734</v>
+        <v>0.0005615692898702578</v>
       </c>
       <c r="T21">
-        <v>0.0003754081432781734</v>
+        <v>0.0005615692898702578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.537142</v>
+      </c>
+      <c r="I22">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J22">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>47.253984</v>
+      </c>
+      <c r="N22">
+        <v>141.761952</v>
+      </c>
+      <c r="O22">
+        <v>0.8884015114449556</v>
+      </c>
+      <c r="P22">
+        <v>0.8884015114449555</v>
+      </c>
+      <c r="Q22">
+        <v>71.46601182457601</v>
+      </c>
+      <c r="R22">
+        <v>643.1941064211841</v>
+      </c>
+      <c r="S22">
+        <v>0.05776776181349311</v>
+      </c>
+      <c r="T22">
+        <v>0.0577677618134931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.537142</v>
+      </c>
+      <c r="I23">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J23">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.022517333333333</v>
+      </c>
+      <c r="N23">
+        <v>12.067552</v>
+      </c>
+      <c r="O23">
+        <v>0.07562559124637756</v>
+      </c>
+      <c r="P23">
+        <v>0.07562559124637755</v>
+      </c>
+      <c r="Q23">
+        <v>6.083577446264889</v>
+      </c>
+      <c r="R23">
+        <v>54.752197016384</v>
+      </c>
+      <c r="S23">
+        <v>0.004917507552435102</v>
+      </c>
+      <c r="T23">
+        <v>0.004917507552435101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.537142</v>
+      </c>
+      <c r="I24">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J24">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7893206666666668</v>
+      </c>
+      <c r="N24">
+        <v>2.367962</v>
+      </c>
+      <c r="O24">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="P24">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="Q24">
+        <v>1.193753316067111</v>
+      </c>
+      <c r="R24">
+        <v>10.743779844604</v>
+      </c>
+      <c r="S24">
+        <v>0.0009649406125516866</v>
+      </c>
+      <c r="T24">
+        <v>0.0009649406125516863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.537142</v>
+      </c>
+      <c r="I25">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J25">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.803095</v>
+      </c>
+      <c r="N25">
+        <v>2.409285</v>
+      </c>
+      <c r="O25">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="P25">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="Q25">
+        <v>1.214585351496667</v>
+      </c>
+      <c r="R25">
+        <v>10.93126816347</v>
+      </c>
+      <c r="S25">
+        <v>0.0009817796669505633</v>
+      </c>
+      <c r="T25">
+        <v>0.0009817796669505633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.537142</v>
+      </c>
+      <c r="I26">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J26">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.320979</v>
+      </c>
+      <c r="N26">
+        <v>0.9629369999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.006034585967229564</v>
+      </c>
+      <c r="P26">
+        <v>0.006034585967229563</v>
+      </c>
+      <c r="Q26">
+        <v>0.485442434006</v>
+      </c>
+      <c r="R26">
+        <v>4.368981906054</v>
+      </c>
+      <c r="S26">
+        <v>0.0003923952405607367</v>
+      </c>
+      <c r="T26">
+        <v>0.0003923952405607366</v>
       </c>
     </row>
   </sheetData>
